--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3108595.518999078</v>
+        <v>3105733.049898952</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8412881.17642539</v>
+        <v>8412881.176425392</v>
       </c>
     </row>
     <row r="11">
@@ -665,61 +665,61 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40.36809222617124</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>22.37892513348061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.097100052852174</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="W2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E3" t="n">
-        <v>44.46519227902342</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>50.48273419507654</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.46519227902341</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
     </row>
     <row r="4">
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="U4" t="n">
-        <v>50.48273419507654</v>
+        <v>8.386866521745233</v>
       </c>
       <c r="V4" t="n">
-        <v>8.386866521745233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>50.48273419507654</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>25.34580260830151</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>32.22184835001295</v>
+      </c>
+      <c r="U5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,55 +975,55 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>47.3837968773324</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>53.79631798062264</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,55 +1057,55 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>13.74224000600998</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>80.34349396157702</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170.1331892653141</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1331892653141</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>170.1331892653141</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.80371436173802</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157356</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>142.9772673631768</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.96033322209309</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653141</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.3604971227119</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>103.0928215976227</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.4005376875162</v>
+        <v>143.0702580230121</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116024</v>
+        <v>29.85685983116041</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>147.0593845160294</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.1331892653141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>130.3963959210117</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>198.5094282323931</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701398</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G31" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427914</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,10 +3269,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>245.8796921214469</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>78.89395497654104</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>102.1557845699813</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="E2" t="n">
-        <v>110.1624252436922</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="F2" t="n">
-        <v>59.16976444058463</v>
+        <v>42.00745362177985</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>26.64359361790977</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
@@ -4337,13 +4337,13 @@
         <v>51.99721622092883</v>
       </c>
       <c r="M2" t="n">
+        <v>51.99721622092883</v>
+      </c>
+      <c r="N2" t="n">
         <v>101.9751230740546</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>151.9530299271804</v>
-      </c>
-      <c r="O2" t="n">
-        <v>201.9309367803062</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4355,25 +4355,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="V2" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="W2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.94561517409093</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="C3" t="n">
-        <v>99.94561517409093</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="D3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
         <v>4.038618735606123</v>
@@ -4407,52 +4407,52 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>57.90734322943065</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>57.90734322943065</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N3" t="n">
-        <v>57.90734322943065</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
-        <v>107.8852500825564</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8631569356822</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="S3" t="n">
         <v>150.9382759771985</v>
       </c>
-      <c r="S3" t="n">
-        <v>99.94561517409093</v>
-      </c>
       <c r="T3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="X3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="Y3" t="n">
-        <v>99.94561517409093</v>
+        <v>55.03127953871374</v>
       </c>
     </row>
     <row r="4">
@@ -4510,19 +4510,19 @@
         <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="S4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="T4" t="n">
-        <v>165.4881834901262</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4955226870186</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="V4" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="W4" t="n">
         <v>55.03127953871374</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.16612652666438</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="C5" t="n">
-        <v>52.16612652666438</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="D5" t="n">
-        <v>52.16612652666438</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="E5" t="n">
-        <v>52.16612652666438</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="F5" t="n">
-        <v>45.22062577746091</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
-        <v>29.90552625491599</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
         <v>4.303705438449811</v>
@@ -4568,19 +4568,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>55.4102075200413</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
+        <v>57.56206023926622</v>
+      </c>
+      <c r="M5" t="n">
         <v>108.6685623208577</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>108.6685623208577</v>
+      </c>
+      <c r="O5" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="N5" t="n">
-        <v>215.1852719224906</v>
-      </c>
-      <c r="O5" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4589,28 +4589,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8455567905485</v>
+        <v>182.6379503568209</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>128.2982352248789</v>
       </c>
       <c r="V5" t="n">
-        <v>106.5058416586064</v>
+        <v>128.2982352248789</v>
       </c>
       <c r="W5" t="n">
-        <v>106.5058416586064</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="X5" t="n">
-        <v>52.16612652666438</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.16612652666438</v>
+        <v>73.95852009293679</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C6" t="n">
         <v>4.303705438449811</v>
@@ -4644,52 +4644,52 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>57.56206023926622</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="L6" t="n">
-        <v>110.8204150400826</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="M6" t="n">
-        <v>110.8204150400826</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="N6" t="n">
-        <v>110.8204150400826</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="O6" t="n">
-        <v>164.078769840899</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="P6" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="S6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="T6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="U6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="V6" t="n">
-        <v>167.322850834276</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="W6" t="n">
-        <v>167.322850834276</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="X6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="C7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="E7" t="n">
-        <v>72.52447108151307</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="F7" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G7" t="n">
         <v>4.303705438449811</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="V7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="W7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="X7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>624.2639643525961</v>
+        <v>192.4078622190282</v>
       </c>
       <c r="C8" t="n">
-        <v>543.1089199469627</v>
+        <v>192.4078622190282</v>
       </c>
       <c r="D8" t="n">
-        <v>371.2572136183627</v>
+        <v>192.4078622190282</v>
       </c>
       <c r="E8" t="n">
-        <v>199.4055072897626</v>
+        <v>192.4078622190282</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116252</v>
+        <v>185.4623614698248</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821335</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="K8" t="n">
-        <v>290.7288609577462</v>
+        <v>138.5149267953243</v>
       </c>
       <c r="L8" t="n">
-        <v>291.5116354543634</v>
+        <v>306.9467841679848</v>
       </c>
       <c r="M8" t="n">
-        <v>324.0520603504502</v>
+        <v>339.4872090640708</v>
       </c>
       <c r="N8" t="n">
-        <v>361.7328317201553</v>
+        <v>507.9190664367313</v>
       </c>
       <c r="O8" t="n">
-        <v>530.1646890928163</v>
+        <v>530.1646890928151</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928163</v>
+        <v>530.1646890928151</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612562</v>
+        <v>680.5327570612546</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525961</v>
+        <v>680.5327570612546</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643525961</v>
+        <v>536.1112748762275</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643525961</v>
+        <v>364.2595685476279</v>
       </c>
       <c r="U8" t="n">
-        <v>624.2639643525961</v>
+        <v>364.2595685476279</v>
       </c>
       <c r="V8" t="n">
-        <v>624.2639643525961</v>
+        <v>364.2595685476279</v>
       </c>
       <c r="W8" t="n">
-        <v>624.2639643525961</v>
+        <v>192.4078622190282</v>
       </c>
       <c r="X8" t="n">
-        <v>624.2639643525961</v>
+        <v>192.4078622190282</v>
       </c>
       <c r="Y8" t="n">
-        <v>624.2639643525961</v>
+        <v>192.4078622190282</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>640.168784109647</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="C9" t="n">
-        <v>468.3170777810469</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="D9" t="n">
-        <v>319.3826681197957</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1452131143402</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="J9" t="n">
-        <v>87.88972643578383</v>
+        <v>87.88972643578359</v>
       </c>
       <c r="K9" t="n">
-        <v>256.3215838084448</v>
+        <v>87.88972643578359</v>
       </c>
       <c r="L9" t="n">
-        <v>308.4011794538073</v>
+        <v>123.1258775948552</v>
       </c>
       <c r="M9" t="n">
-        <v>368.8769740468317</v>
+        <v>291.5577349675157</v>
       </c>
       <c r="N9" t="n">
-        <v>445.3620278871377</v>
+        <v>459.9895923401763</v>
       </c>
       <c r="O9" t="n">
-        <v>493.111114384175</v>
+        <v>507.738678837213</v>
       </c>
       <c r="P9" t="n">
-        <v>512.1008996885953</v>
+        <v>526.7284641416329</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612562</v>
+        <v>680.5327570612546</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612562</v>
+        <v>629.6635680484144</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612562</v>
+        <v>525.5294048184925</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612562</v>
+        <v>525.5294048184925</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612562</v>
+        <v>353.6776984898928</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612562</v>
+        <v>353.6776984898928</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612562</v>
+        <v>353.6776984898928</v>
       </c>
       <c r="X9" t="n">
-        <v>680.5327570612562</v>
+        <v>181.8259921612931</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.5327570612562</v>
+        <v>181.8259921612931</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.6634774814678</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="C10" t="n">
-        <v>163.7272945535609</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="D10" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="E10" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122513</v>
+        <v>13.61065514122509</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057992</v>
+        <v>68.90447724057969</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340622</v>
+        <v>195.1879671340618</v>
       </c>
       <c r="M10" t="n">
-        <v>338.725324069425</v>
+        <v>338.7253240694242</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004853</v>
+        <v>484.2842999004843</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689142</v>
+        <v>602.7152779689128</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612562</v>
+        <v>680.5327570612546</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.374312787357</v>
+        <v>650.3743127873553</v>
       </c>
       <c r="R10" t="n">
-        <v>650.374312787357</v>
+        <v>501.8294799428811</v>
       </c>
       <c r="S10" t="n">
-        <v>650.374312787357</v>
+        <v>501.8294799428811</v>
       </c>
       <c r="T10" t="n">
-        <v>650.374312787357</v>
+        <v>501.8294799428811</v>
       </c>
       <c r="U10" t="n">
-        <v>650.374312787357</v>
+        <v>329.9777736142814</v>
       </c>
       <c r="V10" t="n">
-        <v>650.374312787357</v>
+        <v>158.1260672856818</v>
       </c>
       <c r="W10" t="n">
-        <v>650.374312787357</v>
+        <v>158.1260672856818</v>
       </c>
       <c r="X10" t="n">
-        <v>650.374312787357</v>
+        <v>158.1260672856818</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.5226064587569</v>
+        <v>158.1260672856818</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,16 +5045,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.448509608146</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679489</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,7 +5993,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,7 +6230,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6312,19 +6312,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6497,10 +6497,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,10 +6731,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7637,7 +7637,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7985,7 +7985,7 @@
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>263.3879167614743</v>
@@ -7994,7 +7994,7 @@
         <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>268.4117974997384</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>129.8481964236088</v>
@@ -8067,16 +8067,16 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>166.9104890920976</v>
       </c>
       <c r="O3" t="n">
-        <v>181.3015543884808</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>178.1759897207746</v>
+        <v>184.1458149818875</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>253.8036932114795</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>257.2476482458454</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>179.4738158616228</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>175.9947778369091</v>
@@ -8304,16 +8304,16 @@
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>157.002365647822</v>
       </c>
       <c r="O6" t="n">
         <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>171.2126495331726</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>53.81818816105556</v>
       </c>
       <c r="K8" t="n">
-        <v>194.0474371976822</v>
+        <v>155.5744155597904</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>169.3425079556</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>132.07180404339</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500772</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.67159251783505</v>
+        <v>15.67159251783568</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>178.4614495570662</v>
+        <v>8.328260291752486</v>
       </c>
       <c r="L9" t="n">
-        <v>17.01358028918229</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>109.0465280602392</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>92.87555912359105</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>207.7342274853337</v>
+        <v>192.9589098560015</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>18.89602209489516</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G31" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.30478226779726</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>43.26526345294991</v>
+        <v>105.8997516911</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>749552.1446625791</v>
+        <v>749552.1446625792</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712962.6583438911</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712962.6583438913</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287549</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287552</v>
@@ -26369,10 +26369,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543787</v>
+        <v>325486.3975543777</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756737</v>
+        <v>1098807.963756738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.305927126235994e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184452</v>
+        <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031384</v>
+        <v>29443.81509031374</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299115</v>
+        <v>249845.7249299116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278903</v>
+        <v>306360.6503278906</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.36846171967</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719696</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>7507.368461719695</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719669</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719637</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="P4" t="n">
         <v>7507.368461719676</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719678</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.36846171969</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.36846171971</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.36846171971</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719783</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.3684617197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7507.368461719725</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241483</v>
+        <v>52100.52571241479</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249908.0448485035</v>
+        <v>249908.0448485033</v>
       </c>
       <c r="C6" t="n">
-        <v>279465.655146625</v>
+        <v>279465.6551466255</v>
       </c>
       <c r="D6" t="n">
-        <v>34463.97503656421</v>
+        <v>34463.97503656484</v>
       </c>
       <c r="E6" t="n">
-        <v>-501184.5873136085</v>
+        <v>-501219.3252390454</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.638517693</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431287</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.638517693</v>
       </c>
       <c r="I6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="J6" t="n">
-        <v>584414.871937392</v>
+        <v>584380.1340119563</v>
       </c>
       <c r="K6" t="n">
-        <v>596770.5660114103</v>
+        <v>596735.8280859742</v>
       </c>
       <c r="L6" t="n">
-        <v>568179.5613528147</v>
+        <v>568144.8234273795</v>
       </c>
       <c r="M6" t="n">
-        <v>347777.6515132168</v>
+        <v>347742.9135877815</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431287</v>
+        <v>597588.638517693</v>
       </c>
       <c r="O6" t="n">
-        <v>597623.3764431281</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431283</v>
+        <v>597588.6385176928</v>
       </c>
     </row>
   </sheetData>
@@ -26704,10 +26704,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075109</v>
+        <v>372.8820094075098</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653141</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,19 +26926,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883856</v>
+        <v>337.8607486883845</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341629</v>
+        <v>995.0934909341639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846914</v>
+        <v>116.336871284691</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834335</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546371</v>
+        <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846914</v>
+        <v>116.336871284691</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846914</v>
+        <v>116.336871284691</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,22 +27385,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>341.5622778460905</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>364.7274872087548</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>316.1483963573978</v>
       </c>
       <c r="I2" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>200.8555174238556</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.2695242750584</v>
       </c>
       <c r="W2" t="n">
-        <v>298.7582345223365</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,16 +27461,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>96.96233136956221</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1798881763775</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>86.81128248461911</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.60172783196103</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>120.2809871382089</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.2297908818962</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="4">
@@ -27582,22 +27582,22 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>124.9446868416198</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>177.2855390059461</v>
       </c>
       <c r="U4" t="n">
-        <v>235.8340315500025</v>
+        <v>277.9298992233338</v>
       </c>
       <c r="V4" t="n">
-        <v>243.7507768020828</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>236.0402641415145</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>175.2269211939606</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>312.6871442859993</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.22896370465668</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>190.2576974199557</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>197.5380718081886</v>
       </c>
       <c r="V5" t="n">
-        <v>273.9559404895123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>295.4446507367904</v>
       </c>
       <c r="X5" t="n">
-        <v>315.9347826978464</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>118.9121810076931</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>41.68452591975693</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>116.4876546407105</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27752,16 +27752,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>185.4167902720929</v>
+        <v>179.0042691688026</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>151.9766672228548</v>
+        <v>158.389188326145</v>
       </c>
       <c r="Y6" t="n">
-        <v>151.8863777966817</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>94.81915503758972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>92.63764466594654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>131.6788080169213</v>
       </c>
       <c r="G7" t="n">
-        <v>114.1315082847361</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>169.119693879324</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>173.8794355044132</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>284.9293978094305</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>184.5498523553689</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7971808069477</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>236.7428564763974</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>243.6705250964243</v>
       </c>
       <c r="H8" t="n">
         <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>152.684799449067</v>
+        <v>152.6847994490671</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>55.70610478157383</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782105</v>
+        <v>31.88381211503378</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101359</v>
+        <v>46.40068644482222</v>
       </c>
       <c r="U8" t="n">
         <v>251.2257310555647</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>179.1077794520994</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.5728504277743</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.575309723001681</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
@@ -27950,7 +27950,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642488</v>
+        <v>61.78225762642496</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271175</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.785479501566</v>
+        <v>53.69265790394341</v>
       </c>
       <c r="T9" t="n">
         <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8886157588888</v>
+        <v>55.75542649357519</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>35.63979593816381</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.43144249442108</v>
+        <v>36.76172215892521</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712832</v>
+        <v>45.81978032712846</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160294</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.2983224298543</v>
@@ -28065,10 +28065,10 @@
         <v>225.0725641098958</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2823524375328</v>
+        <v>116.1491631722191</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>82.00445405851434</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.45146408678073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29989,19 +29989,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4.070103492332624e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30694,10 +30694,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,22 +30745,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397028</v>
+        <v>1.499023153397023</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972731</v>
+        <v>15.35187086972727</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133896</v>
+        <v>57.7910901213388</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656311</v>
+        <v>127.2277163656307</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489273</v>
+        <v>190.6813664489268</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797017</v>
+        <v>236.5570962797009</v>
       </c>
       <c r="M8" t="n">
-        <v>263.215349283926</v>
+        <v>263.2153492839253</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185153</v>
+        <v>267.4744488185146</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369236</v>
+        <v>252.5685373369229</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374345</v>
+        <v>215.5614032374339</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564034</v>
+        <v>161.8776365564029</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957612</v>
+        <v>94.16301315957585</v>
       </c>
       <c r="S8" t="n">
-        <v>34.1589901080348</v>
+        <v>34.1589901080347</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995492</v>
+        <v>6.561973853995473</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717622</v>
+        <v>0.1199218522717618</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067216</v>
+        <v>0.8020480957067193</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220181</v>
+        <v>7.746096082220158</v>
       </c>
       <c r="I9" t="n">
-        <v>27.6143752249902</v>
+        <v>27.61437522499012</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025654</v>
+        <v>75.77595627025633</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826069</v>
+        <v>129.5131786826065</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577248</v>
+        <v>174.1464516577243</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270934</v>
+        <v>203.2206951270928</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250565</v>
+        <v>208.5993422250559</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465023</v>
+        <v>190.8276449465017</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319265</v>
+        <v>153.1560087319261</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660019</v>
+        <v>102.3807358660016</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993138</v>
+        <v>49.79733702993124</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227177</v>
+        <v>14.89769160227173</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467004</v>
+        <v>3.232816666466995</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596855</v>
+        <v>0.0527663220859684</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987901</v>
+        <v>0.6724101808987881</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172883</v>
+        <v>5.978337790172866</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557453</v>
+        <v>20.22120798557447</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954445</v>
+        <v>47.53939978954432</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078669</v>
+        <v>78.12183738078646</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017105</v>
+        <v>99.96905544017075</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657985</v>
+        <v>105.4033522657982</v>
       </c>
       <c r="N10" t="n">
-        <v>102.897096136994</v>
+        <v>102.8970961369937</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013084</v>
+        <v>95.04212266013056</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979546</v>
+        <v>81.32495496979521</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053414</v>
+        <v>56.30518342053398</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114013</v>
+        <v>30.23400686114005</v>
       </c>
       <c r="S10" t="n">
-        <v>11.718275607118</v>
+        <v>11.71827560711797</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385739</v>
+        <v>2.87302531838573</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811587</v>
+        <v>0.03667691895811576</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157701</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34705,7 +34705,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>50.48273419507654</v>
@@ -34714,7 +34714,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="O3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.51290893396361</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="M5" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>53.79631798062264</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>45.25240582282281</v>
       </c>
       <c r="O6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
-        <v>51.62272937534497</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110186</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>164.638952601629</v>
+        <v>126.1659309637366</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097144152</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665327</v>
+        <v>32.86911605665253</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192441</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="O8" t="n">
-        <v>170.1331892653141</v>
+        <v>22.47032591523617</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418586</v>
+        <v>151.8869373418581</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399869</v>
+        <v>75.02936494399847</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>52.60565216703291</v>
+        <v>35.59207187785012</v>
       </c>
       <c r="M9" t="n">
-        <v>61.0866612050751</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172321</v>
+        <v>170.1331892653137</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205785</v>
+        <v>48.23140050205731</v>
       </c>
       <c r="P9" t="n">
-        <v>19.18160131759629</v>
+        <v>19.18160131759583</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.1331892653141</v>
+        <v>155.3578716359816</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490383</v>
+        <v>55.85234555490361</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004872</v>
+        <v>127.5590807004869</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276391</v>
+        <v>144.9872292276388</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162226</v>
+        <v>147.0292685162223</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741705</v>
+        <v>119.6272505741702</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468894</v>
+        <v>78.6035142346887</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,7 +36443,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899115</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
